--- a/server/services/reports/stock/StockValueTemplate.xlsx
+++ b/server/services/reports/stock/StockValueTemplate.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="detalle" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="valor máximo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="detalle" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,9 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t xml:space="preserve">Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor</t>
   </si>
   <si>
     <t xml:space="preserve">IMEI</t>
@@ -138,11 +142,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,37 +240,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="23.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="23.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="23.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1008" min="5" style="0" width="11.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1009" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
